--- a/feuille de route.xlsx
+++ b/feuille de route.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angek\Downloads\Nouveau dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071C47C-3092-6740-96BD-7EFD6B10D13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3D0E5-3183-468E-B0B1-940C44EB5847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille de Route Complet" sheetId="1" r:id="rId1"/>
-    <sheet name="Questions" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions Entretien" sheetId="2" r:id="rId2"/>
+    <sheet name="Questions Black Box" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>Étape</t>
   </si>
@@ -392,14 +393,116 @@
     <t>Reponses</t>
   </si>
   <si>
-    <t>Observations</t>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Architecture réseau</t>
+  </si>
+  <si>
+    <t>Infrastructure Active Directory</t>
+  </si>
+  <si>
+    <t>Applications et services</t>
+  </si>
+  <si>
+    <t>Sécurité des accès</t>
+  </si>
+  <si>
+    <t>Gestion des logs et surveillance</t>
+  </si>
+  <si>
+    <t>Politiques de sécurité</t>
+  </si>
+  <si>
+    <t>Gestion des incidents</t>
+  </si>
+  <si>
+    <t>Tests sociaux et sensibilisation</t>
+  </si>
+  <si>
+    <t>Pouvez-vous me fournir un schéma détaillé du réseau et des segments utilisés ?</t>
+  </si>
+  <si>
+    <t>Quels sont les serveurs critiques (DNS, fichiers, bases de données) ?</t>
+  </si>
+  <si>
+    <t>Quels contrôles de sécurité sont appliqués pour Active Directory (GPO, comptes privilégiés) ?</t>
+  </si>
+  <si>
+    <t>Y a-t-il des applications exposées sur internet ? Si oui, lesquelles et sur quels environnements ?</t>
+  </si>
+  <si>
+    <t>Quelles solutions de gestion des accès sont utilisées (SSO, MFA) ?</t>
+  </si>
+  <si>
+    <t>Comment les logs réseau, système et applicatifs sont-ils collectés et analysés ?</t>
+  </si>
+  <si>
+    <t>Y a-t-il une politique de sécurité documentée ? Qui est responsable de sa mise en œuvre ?</t>
+  </si>
+  <si>
+    <t>Comment les incidents de sécurité sont-ils gérés (processus et outils) ?</t>
+  </si>
+  <si>
+    <t>Quel est le niveau de sensibilisation des employés face aux attaques sociales ?</t>
+  </si>
+  <si>
+    <t>Des formations ou tests réguliers sont-ils effectués pour améliorer la vigilance ?</t>
+  </si>
+  <si>
+    <t>Collecte d'informations</t>
+  </si>
+  <si>
+    <t>Reconnaissance et cartographie</t>
+  </si>
+  <si>
+    <t>Identification des vulnérabilités</t>
+  </si>
+  <si>
+    <t>Exploitation</t>
+  </si>
+  <si>
+    <t>Post-exploitation</t>
+  </si>
+  <si>
+    <t>Quelles sont les plages d'adresses IP ou les domaines accessibles depuis l'extérieur ?</t>
+  </si>
+  <si>
+    <t>Y a-t-il des services critiques ou des applications exposées ?</t>
+  </si>
+  <si>
+    <t>Des services tiers ou partenaires ont-ils accès aux systèmes de l'entreprise ?</t>
+  </si>
+  <si>
+    <t>Quels sont les points d'entrée réseau les plus probables (VPN, ports exposés) ?</t>
+  </si>
+  <si>
+    <t>Existe-t-il des sous-domaines potentiellement oubliés ou inutilisés ?</t>
+  </si>
+  <si>
+    <t>Quelles sont les technologies utilisées pour les applications exposées (frameworks, serveurs) ?</t>
+  </si>
+  <si>
+    <t>Des scans de vulnérabilités externes ont-ils déjà été effectués ?</t>
+  </si>
+  <si>
+    <t>Quels mécanismes de protection externes sont en place (WAF, IDS/IPS) ?</t>
+  </si>
+  <si>
+    <t>Y a-t-il des mesures pour limiter les dégâts en cas d'exploitation réussie ?</t>
+  </si>
+  <si>
+    <t>Comment les systèmes exposés sont-ils surveillés pour détecter une intrusion ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,14 +533,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,10 +609,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,9 +672,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,26 +707,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,26 +742,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -837,20 +920,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -882,7 +965,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -897,7 +980,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -912,7 +995,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -927,7 +1010,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -942,7 +1025,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -957,7 +1040,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -972,7 +1055,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1070,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1085,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1100,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1115,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1047,7 +1130,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1145,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1160,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1092,7 +1175,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1190,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1205,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1220,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1152,7 +1235,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1250,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1182,7 +1265,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1280,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1212,7 +1295,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1227,7 +1310,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -1242,7 +1325,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1340,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1355,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1370,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1385,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -1317,7 +1400,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1332,7 +1415,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1430,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1362,7 +1445,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -1377,7 +1460,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1392,7 +1475,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1407,7 +1490,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -1422,7 +1505,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1520,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -1459,30 +1542,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD97E5A6-7A21-5844-A3FA-15B777F05E68}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="142.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191C3574-3983-45FC-B74C-86E70CBAE5ED}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="53.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="142.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="B1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
+      <c r="D1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" ht="25.8" x14ac:dyDescent="0.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
